--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.516543666666667</v>
+        <v>0.292742</v>
       </c>
       <c r="H2">
-        <v>7.549631</v>
+        <v>0.8782260000000001</v>
       </c>
       <c r="I2">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="J2">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7791006666666668</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N2">
-        <v>2.337302</v>
+        <v>0.020476</v>
       </c>
       <c r="O2">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="P2">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="Q2">
-        <v>1.960640848395778</v>
+        <v>0.001998061730666667</v>
       </c>
       <c r="R2">
-        <v>17.645767635562</v>
+        <v>0.017982555576</v>
       </c>
       <c r="S2">
-        <v>0.4073626337143735</v>
+        <v>0.005090956611173843</v>
       </c>
       <c r="T2">
-        <v>0.4073626337143735</v>
+        <v>0.005090956611173845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.516543666666667</v>
+        <v>0.292742</v>
       </c>
       <c r="H3">
-        <v>7.549631</v>
+        <v>0.8782260000000001</v>
       </c>
       <c r="I3">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="J3">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.148515</v>
       </c>
       <c r="O3">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="P3">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="Q3">
-        <v>0.1245814942183333</v>
+        <v>0.01449219271</v>
       </c>
       <c r="R3">
-        <v>1.121233447965</v>
+        <v>0.13042973439</v>
       </c>
       <c r="S3">
-        <v>0.0258843151403157</v>
+        <v>0.03692534777830061</v>
       </c>
       <c r="T3">
-        <v>0.0258843151403157</v>
+        <v>0.03692534777830062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.516543666666667</v>
+        <v>0.292742</v>
       </c>
       <c r="H4">
-        <v>7.549631</v>
+        <v>0.8782260000000001</v>
       </c>
       <c r="I4">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="J4">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06885166666666667</v>
+        <v>0.078518</v>
       </c>
       <c r="N4">
-        <v>0.206555</v>
+        <v>0.235554</v>
       </c>
       <c r="O4">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="P4">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="Q4">
-        <v>0.1732682256894445</v>
+        <v>0.022985516356</v>
       </c>
       <c r="R4">
-        <v>1.559414031205</v>
+        <v>0.206869647204</v>
       </c>
       <c r="S4">
-        <v>0.03599996440634218</v>
+        <v>0.05856589146261201</v>
       </c>
       <c r="T4">
-        <v>0.03599996440634219</v>
+        <v>0.05856589146261203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.813791</v>
       </c>
       <c r="I5">
-        <v>0.4856657640110924</v>
+        <v>0.8949043375045497</v>
       </c>
       <c r="J5">
-        <v>0.4856657640110925</v>
+        <v>0.8949043375045498</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7791006666666668</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N5">
-        <v>2.337302</v>
+        <v>0.020476</v>
       </c>
       <c r="O5">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="P5">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="Q5">
-        <v>2.029243259098001</v>
+        <v>0.017777242724</v>
       </c>
       <c r="R5">
-        <v>18.263189331882</v>
+        <v>0.159995184516</v>
       </c>
       <c r="S5">
-        <v>0.4216161665455793</v>
+        <v>0.04529548311002029</v>
       </c>
       <c r="T5">
-        <v>0.4216161665455793</v>
+        <v>0.0452954831100203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.813791</v>
       </c>
       <c r="I6">
-        <v>0.4856657640110924</v>
+        <v>0.8949043375045497</v>
       </c>
       <c r="J6">
-        <v>0.4856657640110925</v>
+        <v>0.8949043375045498</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.148515</v>
       </c>
       <c r="O6">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="P6">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="Q6">
         <v>0.128940574485</v>
@@ -818,10 +818,10 @@
         <v>1.160465170365</v>
       </c>
       <c r="S6">
-        <v>0.02679000188016641</v>
+        <v>0.3285338285839355</v>
       </c>
       <c r="T6">
-        <v>0.02679000188016641</v>
+        <v>0.3285338285839355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.813791</v>
       </c>
       <c r="I7">
-        <v>0.4856657640110924</v>
+        <v>0.8949043375045497</v>
       </c>
       <c r="J7">
-        <v>0.4856657640110925</v>
+        <v>0.8949043375045498</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.06885166666666667</v>
+        <v>0.078518</v>
       </c>
       <c r="N7">
-        <v>0.206555</v>
+        <v>0.235554</v>
       </c>
       <c r="O7">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="P7">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="Q7">
-        <v>0.179330844445</v>
+        <v>0.204507747246</v>
       </c>
       <c r="R7">
-        <v>1.613977600005</v>
+        <v>1.840569725214</v>
       </c>
       <c r="S7">
-        <v>0.03725959558534674</v>
+        <v>0.5210750258105938</v>
       </c>
       <c r="T7">
-        <v>0.03725959558534675</v>
+        <v>0.521075025810594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2418006666666667</v>
+        <v>0.01313633333333333</v>
       </c>
       <c r="H8">
-        <v>0.7254020000000001</v>
+        <v>0.039409</v>
       </c>
       <c r="I8">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363867</v>
       </c>
       <c r="J8">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363868</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.7791006666666668</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N8">
-        <v>2.337302</v>
+        <v>0.020476</v>
       </c>
       <c r="O8">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="P8">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="Q8">
-        <v>0.1883870606004445</v>
+        <v>8.965985377777778E-05</v>
       </c>
       <c r="R8">
-        <v>1.695483545404</v>
+        <v>0.0008069386840000001</v>
       </c>
       <c r="S8">
-        <v>0.03914120693073263</v>
+        <v>0.0002284486101410684</v>
       </c>
       <c r="T8">
-        <v>0.03914120693073264</v>
+        <v>0.0002284486101410685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2418006666666667</v>
+        <v>0.01313633333333333</v>
       </c>
       <c r="H9">
-        <v>0.7254020000000001</v>
+        <v>0.039409</v>
       </c>
       <c r="I9">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363867</v>
       </c>
       <c r="J9">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363868</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.148515</v>
       </c>
       <c r="O9">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="P9">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="Q9">
-        <v>0.01197034200333334</v>
+        <v>0.0006503141816666667</v>
       </c>
       <c r="R9">
-        <v>0.10773307803</v>
+        <v>0.005852827635</v>
       </c>
       <c r="S9">
-        <v>0.002487079695870605</v>
+        <v>0.001656966464890642</v>
       </c>
       <c r="T9">
-        <v>0.002487079695870606</v>
+        <v>0.001656966464890642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2418006666666667</v>
+        <v>0.01313633333333333</v>
       </c>
       <c r="H10">
-        <v>0.7254020000000001</v>
+        <v>0.039409</v>
       </c>
       <c r="I10">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363867</v>
       </c>
       <c r="J10">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363868</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1048,28 +1048,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.06885166666666667</v>
+        <v>0.078518</v>
       </c>
       <c r="N10">
-        <v>0.206555</v>
+        <v>0.235554</v>
       </c>
       <c r="O10">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="P10">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="Q10">
-        <v>0.01664837890111111</v>
+        <v>0.001031438620666667</v>
       </c>
       <c r="R10">
-        <v>0.14983541011</v>
+        <v>0.009282947586</v>
       </c>
       <c r="S10">
-        <v>0.003459036101272954</v>
+        <v>0.002628051568332157</v>
       </c>
       <c r="T10">
-        <v>0.003459036101272955</v>
+        <v>0.002628051568332157</v>
       </c>
     </row>
   </sheetData>
